--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.120919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.120919.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6283,12 +6283,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8341,12 +8341,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9277,12 +9277,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9529,12 +9529,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9781,12 +9781,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9949,12 +9949,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10159,12 +10159,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11973,12 +11973,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13905,12 +13905,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
